--- a/data/2023/Fell/Extracted Aggies Staircase.xlsx
+++ b/data/2023/Fell/Extracted Aggies Staircase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wheel\source\repos\InterClub\data\2023\Fell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5B3964-5E7B-45DB-936C-B28298D714F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D320CE1-1CDB-4DB3-86B7-EBAD88C09EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2310" yWindow="2430" windowWidth="19515" windowHeight="11295" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Positions" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="149">
   <si>
     <t>Vet</t>
   </si>
@@ -120,9 +120,6 @@
   </si>
   <si>
     <t>Open</t>
-  </si>
-  <si>
-    <t>Totals</t>
   </si>
   <si>
     <t>Category</t>
@@ -900,6 +897,18 @@
     <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
@@ -915,18 +924,6 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1455,27 +1452,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.899999999999999" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
       <c r="N1" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O1" s="16"/>
     </row>
     <row r="2" spans="1:15" s="11" customFormat="1" ht="22.15" customHeight="1">
       <c r="A2" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>9</v>
@@ -1496,7 +1493,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>13</v>
@@ -1505,7 +1502,7 @@
         <v>14</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L2" s="21" t="s">
         <v>15</v>
@@ -1535,17 +1532,17 @@
       <c r="F4" s="29"/>
       <c r="G4" s="29"/>
       <c r="I4" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="8" t="s">
-        <v>51</v>
-      </c>
       <c r="K4" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L4" s="8"/>
       <c r="N4" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O4" s="27">
         <v>2.1307870370370369E-2</v>
@@ -1568,17 +1565,17 @@
       <c r="F5" s="29"/>
       <c r="G5" s="29"/>
       <c r="I5" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="K5" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L5" s="8"/>
       <c r="N5" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O5" s="27">
         <v>2.3738425925925927E-2</v>
@@ -1599,17 +1596,17 @@
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
       <c r="I6" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="J6" s="8" t="s">
-        <v>55</v>
-      </c>
       <c r="K6" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L6" s="8"/>
       <c r="N6" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O6" s="28">
         <v>2.4063000000000001E-2</v>
@@ -1633,18 +1630,18 @@
       <c r="G7" s="29"/>
       <c r="H7" s="8"/>
       <c r="I7" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="J7" s="15" t="s">
-        <v>57</v>
-      </c>
       <c r="K7" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="14"/>
       <c r="N7" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O7" s="28">
         <v>2.5115999999999999E-2</v>
@@ -1667,17 +1664,17 @@
         <v>1</v>
       </c>
       <c r="I8" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="J8" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="K8" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L8" s="8"/>
       <c r="N8" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O8" s="28">
         <v>2.5266E-2</v>
@@ -1700,17 +1697,17 @@
       <c r="F9" s="29"/>
       <c r="G9" s="29"/>
       <c r="I9" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="J9" s="8" t="s">
-        <v>61</v>
-      </c>
       <c r="K9" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L9" s="8"/>
       <c r="N9" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O9" s="28">
         <v>2.5648000000000001E-2</v>
@@ -1731,17 +1728,17 @@
       <c r="F10" s="29"/>
       <c r="G10" s="29"/>
       <c r="I10" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="J10" s="8" t="s">
-        <v>63</v>
-      </c>
       <c r="K10" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L10" s="8"/>
       <c r="N10" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O10" s="28">
         <v>2.5741E-2</v>
@@ -1764,17 +1761,17 @@
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
       <c r="I11" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="J11" s="8" t="s">
-        <v>65</v>
-      </c>
       <c r="K11" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L11" s="8"/>
       <c r="N11" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O11" s="28">
         <v>2.5822000000000001E-2</v>
@@ -1797,17 +1794,17 @@
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
       <c r="I12" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="J12" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="K12" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L12" s="8"/>
       <c r="N12" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="28">
         <v>2.6019E-2</v>
@@ -1826,17 +1823,17 @@
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
       <c r="I13" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="J13" s="8" t="s">
-        <v>69</v>
-      </c>
       <c r="K13" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L13" s="8"/>
       <c r="N13" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="28">
         <v>2.6134000000000001E-2</v>
@@ -1859,17 +1856,17 @@
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
       <c r="I14" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="J14" s="8" t="s">
-        <v>71</v>
-      </c>
       <c r="K14" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L14" s="8"/>
       <c r="N14" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O14" s="28">
         <v>2.6308000000000002E-2</v>
@@ -1888,17 +1885,17 @@
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
       <c r="I15" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="J15" s="8" t="s">
-        <v>73</v>
-      </c>
       <c r="K15" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L15" s="8"/>
       <c r="N15" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O15" s="28">
         <v>2.6817000000000001E-2</v>
@@ -1923,17 +1920,17 @@
       </c>
       <c r="G16" s="29"/>
       <c r="I16" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="J16" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="J16" s="8" t="s">
-        <v>75</v>
-      </c>
       <c r="K16" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L16" s="8"/>
       <c r="N16" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O16" s="28">
         <v>2.6887000000000001E-2</v>
@@ -1956,17 +1953,17 @@
       <c r="F17" s="29"/>
       <c r="G17" s="29"/>
       <c r="I17" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J17" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="J17" s="8" t="s">
-        <v>77</v>
-      </c>
       <c r="K17" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L17" s="8"/>
       <c r="N17" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O17" s="28">
         <v>2.6921E-2</v>
@@ -1987,17 +1984,17 @@
       <c r="F18" s="29"/>
       <c r="G18" s="29"/>
       <c r="I18" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K18" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L18" s="8"/>
       <c r="N18" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O18" s="28">
         <v>2.7060000000000001E-2</v>
@@ -2018,17 +2015,17 @@
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
       <c r="I19" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="J19" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="J19" s="8" t="s">
-        <v>80</v>
-      </c>
       <c r="K19" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L19" s="8"/>
       <c r="N19" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O19" s="28">
         <v>2.7326E-2</v>
@@ -2049,17 +2046,17 @@
         <v>2</v>
       </c>
       <c r="I20" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="J20" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="J20" s="8" t="s">
-        <v>82</v>
-      </c>
       <c r="K20" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L20" s="8"/>
       <c r="N20" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O20" s="28">
         <v>2.7522999999999999E-2</v>
@@ -2078,17 +2075,17 @@
       <c r="F21" s="29"/>
       <c r="G21" s="29"/>
       <c r="I21" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="J21" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="J21" s="8" t="s">
-        <v>84</v>
-      </c>
       <c r="K21" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L21" s="8"/>
       <c r="N21" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O21" s="28">
         <v>2.809E-2</v>
@@ -2111,17 +2108,17 @@
       <c r="F22" s="29"/>
       <c r="G22" s="29"/>
       <c r="I22" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="J22" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="J22" s="8" t="s">
-        <v>86</v>
-      </c>
       <c r="K22" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L22" s="8"/>
       <c r="N22" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O22" s="28">
         <v>2.8565E-2</v>
@@ -2144,17 +2141,17 @@
       <c r="F23" s="29"/>
       <c r="G23" s="29"/>
       <c r="I23" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="J23" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="J23" s="8" t="s">
-        <v>88</v>
-      </c>
       <c r="K23" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L23" s="8"/>
       <c r="N23" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O23" s="28">
         <v>2.9062000000000001E-2</v>
@@ -2179,17 +2176,17 @@
       </c>
       <c r="G24" s="29"/>
       <c r="I24" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="J24" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="J24" s="8" t="s">
-        <v>90</v>
-      </c>
       <c r="K24" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L24" s="8"/>
       <c r="N24" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O24" s="28">
         <v>2.9524999999999999E-2</v>
@@ -2208,17 +2205,17 @@
       <c r="F25" s="29"/>
       <c r="G25" s="29"/>
       <c r="I25" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="J25" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="J25" s="8" t="s">
-        <v>92</v>
-      </c>
       <c r="K25" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L25" s="8"/>
       <c r="N25" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O25" s="28">
         <v>2.9791999999999999E-2</v>
@@ -2243,17 +2240,17 @@
       </c>
       <c r="G26" s="29"/>
       <c r="I26" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="J26" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="J26" s="8" t="s">
-        <v>94</v>
-      </c>
       <c r="K26" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L26" s="8"/>
       <c r="N26" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O26" s="28">
         <v>3.0138999999999999E-2</v>
@@ -2272,17 +2269,17 @@
       <c r="F27" s="29"/>
       <c r="G27" s="29"/>
       <c r="I27" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K27" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L27" s="8"/>
       <c r="N27" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O27" s="28">
         <v>3.0231000000000001E-2</v>
@@ -2305,17 +2302,17 @@
         <v>3</v>
       </c>
       <c r="I28" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="J28" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="J28" s="8" t="s">
-        <v>97</v>
-      </c>
       <c r="K28" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L28" s="8"/>
       <c r="N28" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O28" s="28">
         <v>3.0995000000000002E-2</v>
@@ -2340,17 +2337,17 @@
       </c>
       <c r="G29" s="29"/>
       <c r="I29" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K29" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L29" s="8"/>
       <c r="N29" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O29" s="28">
         <v>3.1123000000000001E-2</v>
@@ -2371,17 +2368,17 @@
         <v>4</v>
       </c>
       <c r="I30" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="J30" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="J30" s="8" t="s">
-        <v>100</v>
-      </c>
       <c r="K30" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L30" s="8"/>
       <c r="N30" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O30" s="28">
         <v>3.1273000000000002E-2</v>
@@ -2406,17 +2403,17 @@
         <v>5</v>
       </c>
       <c r="I31" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K31" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L31" s="8"/>
       <c r="N31" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O31" s="28">
         <v>3.1655000000000003E-2</v>
@@ -2437,17 +2434,17 @@
       <c r="F32" s="29"/>
       <c r="G32" s="29"/>
       <c r="I32" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K32" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L32" s="8"/>
       <c r="N32" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O32" s="28">
         <v>3.1806000000000001E-2</v>
@@ -2470,17 +2467,17 @@
         <v>6</v>
       </c>
       <c r="I33" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="J33" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="J33" s="8" t="s">
-        <v>104</v>
-      </c>
       <c r="K33" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L33" s="8"/>
       <c r="N33" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O33" s="28">
         <v>3.2233999999999999E-2</v>
@@ -2505,17 +2502,17 @@
         <v>7</v>
       </c>
       <c r="I34" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="J34" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="J34" s="8" t="s">
-        <v>106</v>
-      </c>
       <c r="K34" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L34" s="8"/>
       <c r="N34" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O34" s="28">
         <v>3.2743000000000001E-2</v>
@@ -2540,17 +2537,17 @@
       </c>
       <c r="G35" s="29"/>
       <c r="I35" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="J35" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="J35" s="8" t="s">
-        <v>108</v>
-      </c>
       <c r="K35" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L35" s="8"/>
       <c r="N35" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O35" s="28">
         <v>3.2927999999999999E-2</v>
@@ -2575,17 +2572,17 @@
         <v>8</v>
       </c>
       <c r="I36" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K36" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L36" s="8"/>
       <c r="N36" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O36" s="28">
         <v>3.3345E-2</v>
@@ -2606,17 +2603,17 @@
       <c r="F37" s="29"/>
       <c r="G37" s="29"/>
       <c r="I37" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="J37" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="J37" s="8" t="s">
-        <v>111</v>
-      </c>
       <c r="K37" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L37" s="8"/>
       <c r="N37" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O37" s="28">
         <v>3.3552999999999999E-2</v>
@@ -2635,17 +2632,17 @@
       <c r="F38" s="29"/>
       <c r="G38" s="29"/>
       <c r="I38" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K38" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L38" s="8"/>
       <c r="N38" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O38" s="28">
         <v>3.3588E-2</v>
@@ -2668,17 +2665,17 @@
         <v>9</v>
       </c>
       <c r="I39" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="J39" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="J39" s="8" t="s">
-        <v>114</v>
-      </c>
       <c r="K39" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L39" s="8"/>
       <c r="N39" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O39" s="28">
         <v>3.3703999999999998E-2</v>
@@ -2705,17 +2702,17 @@
         <v>10</v>
       </c>
       <c r="I40" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="J40" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="J40" s="8" t="s">
-        <v>116</v>
-      </c>
       <c r="K40" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L40" s="8"/>
       <c r="N40" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O40" s="28">
         <v>3.4536999999999998E-2</v>
@@ -2740,17 +2737,17 @@
       </c>
       <c r="G41" s="29"/>
       <c r="I41" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K41" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L41" s="8"/>
       <c r="N41" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O41" s="28">
         <v>3.5508999999999999E-2</v>
@@ -2773,17 +2770,17 @@
       <c r="F42" s="29"/>
       <c r="G42" s="29"/>
       <c r="I42" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="J42" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="J42" s="8" t="s">
-        <v>119</v>
-      </c>
       <c r="K42" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L42" s="8"/>
       <c r="N42" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O42" s="28">
         <v>3.6262000000000003E-2</v>
@@ -2804,17 +2801,17 @@
         <v>11</v>
       </c>
       <c r="I43" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="J43" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="J43" s="8" t="s">
-        <v>121</v>
-      </c>
       <c r="K43" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L43" s="8"/>
       <c r="N43" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O43" s="28">
         <v>3.6331000000000002E-2</v>
@@ -2839,17 +2836,17 @@
       </c>
       <c r="G44" s="29"/>
       <c r="I44" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="J44" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="J44" s="8" t="s">
-        <v>123</v>
-      </c>
       <c r="K44" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L44" s="8"/>
       <c r="N44" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O44" s="28">
         <v>3.6759E-2</v>
@@ -2876,17 +2873,17 @@
         <v>12</v>
       </c>
       <c r="I45" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="J45" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="J45" s="8" t="s">
-        <v>125</v>
-      </c>
       <c r="K45" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L45" s="8"/>
       <c r="N45" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O45" s="28">
         <v>3.7048999999999999E-2</v>
@@ -2909,17 +2906,17 @@
       <c r="F46" s="29"/>
       <c r="G46" s="29"/>
       <c r="I46" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="J46" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="J46" s="8" t="s">
-        <v>127</v>
-      </c>
       <c r="K46" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L46" s="8"/>
       <c r="N46" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O46" s="28">
         <v>3.7499999999999999E-2</v>
@@ -2944,17 +2941,17 @@
         <v>13</v>
       </c>
       <c r="I47" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="J47" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="J47" s="8" t="s">
-        <v>129</v>
-      </c>
       <c r="K47" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L47" s="8"/>
       <c r="N47" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O47" s="28">
         <v>4.0045999999999998E-2</v>
@@ -2977,17 +2974,17 @@
         <v>14</v>
       </c>
       <c r="I48" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="J48" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="J48" s="8" t="s">
-        <v>131</v>
-      </c>
       <c r="K48" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L48" s="8"/>
       <c r="N48" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O48" s="28">
         <v>4.0104000000000001E-2</v>
@@ -3012,17 +3009,17 @@
         <v>15</v>
       </c>
       <c r="I49" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="J49" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="J49" s="8" t="s">
-        <v>133</v>
-      </c>
       <c r="K49" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L49" s="8"/>
       <c r="N49" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O49" s="28">
         <v>4.1366E-2</v>
@@ -3049,17 +3046,17 @@
         <v>16</v>
       </c>
       <c r="I50" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J50" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K50" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L50" s="8"/>
       <c r="N50" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O50" s="28">
         <v>4.1921E-2</v>
@@ -3084,17 +3081,17 @@
         <v>17</v>
       </c>
       <c r="I51" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="J51" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="J51" s="8" t="s">
-        <v>136</v>
-      </c>
       <c r="K51" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L51" s="8"/>
       <c r="N51" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O51" s="28">
         <v>4.3414000000000001E-2</v>
@@ -3117,17 +3114,17 @@
         <v>18</v>
       </c>
       <c r="I52" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J52" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K52" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L52" s="8"/>
       <c r="N52" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O52" s="28">
         <v>4.5589999999999999E-2</v>
@@ -3148,17 +3145,17 @@
       <c r="F53" s="29"/>
       <c r="G53" s="29"/>
       <c r="I53" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J53" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K53" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L53" s="8"/>
       <c r="N53" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O53" s="28">
         <v>5.1678000000000002E-2</v>
@@ -3183,17 +3180,17 @@
         <v>19</v>
       </c>
       <c r="I54" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="J54" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="J54" s="8" t="s">
-        <v>140</v>
-      </c>
       <c r="K54" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L54" s="8"/>
       <c r="N54" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O54" s="28">
         <v>5.5821999999999997E-2</v>
@@ -7388,7 +7385,7 @@
   </sheetPr>
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A6" sqref="A6"/>
       <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
@@ -7674,7 +7671,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="12" customHeight="1">
@@ -7990,103 +7987,103 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="35">
+        <v>21</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15">
+      <c r="A4" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="B3" s="41">
-        <v>21</v>
-      </c>
-      <c r="D3" s="42" t="s">
+      <c r="B4" s="35">
+        <v>40</v>
+      </c>
+      <c r="D4" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="E3" s="41">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15">
-      <c r="A4" s="39" t="s">
+      <c r="E4" s="35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15">
+      <c r="A5" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="41">
-        <v>40</v>
-      </c>
-      <c r="D4" s="42" t="s">
+      <c r="B5" s="35">
+        <v>110</v>
+      </c>
+      <c r="D5" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="E4" s="41">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15">
-      <c r="A5" s="39" t="s">
+      <c r="E5" s="35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15">
+      <c r="A6" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="B5" s="41">
-        <v>110</v>
-      </c>
-      <c r="D5" s="42" t="s">
+      <c r="B6" s="35">
+        <v>135</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" s="35">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15">
+      <c r="A7" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="35">
+        <v>173</v>
+      </c>
+      <c r="D7" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="E5" s="41">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15">
-      <c r="A6" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="B6" s="41">
-        <v>135</v>
-      </c>
-      <c r="D6" s="42" t="s">
+      <c r="E7" s="35">
+        <v>70</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15">
+      <c r="A8" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="E6" s="41">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15">
-      <c r="A7" s="39" t="s">
+      <c r="B8" s="35">
+        <v>80</v>
+      </c>
+      <c r="D8" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="B7" s="41">
-        <v>173</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="E7" s="41">
-        <v>70</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15">
-      <c r="A8" s="39" t="s">
+      <c r="E8" s="35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15">
+      <c r="A9" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="B8" s="41">
-        <v>80</v>
-      </c>
-      <c r="D8" s="42" t="s">
+      <c r="B9" s="35">
+        <v>51</v>
+      </c>
+      <c r="D9" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="E8" s="41">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15">
-      <c r="A9" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="B9" s="41">
-        <v>51</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>148</v>
-      </c>
-      <c r="E9" s="41">
+      <c r="E9" s="35">
         <v>41</v>
       </c>
     </row>
@@ -8099,100 +8096,100 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="15">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" s="35">
+        <v>10</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="E13" s="35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15">
+      <c r="A14" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="B13" s="41">
+      <c r="B14" s="35">
+        <v>12</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="E14" s="35">
         <v>10</v>
       </c>
-      <c r="D13" s="40" t="s">
+    </row>
+    <row r="15" spans="1:7" ht="15">
+      <c r="A15" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" s="35">
+        <v>34</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="E15" s="35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15">
+      <c r="A16" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="E13" s="41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15">
-      <c r="A14" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="B14" s="41">
-        <v>12</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="E14" s="41">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15">
-      <c r="A15" s="40" t="s">
+      <c r="B16" s="35">
+        <v>48</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="E16" s="35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15">
+      <c r="A17" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="B17" s="35">
+        <v>41</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="E17" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15">
+      <c r="A18" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18" s="35">
+        <v>42</v>
+      </c>
+      <c r="D18" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="B15" s="41">
-        <v>34</v>
-      </c>
-      <c r="D15" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="E15" s="41">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15">
-      <c r="A16" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="B16" s="41">
-        <v>48</v>
-      </c>
-      <c r="D16" s="40" t="s">
+      <c r="E18" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15">
+      <c r="A19" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="E16" s="41">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15">
-      <c r="A17" s="40" t="s">
+      <c r="B19" s="35">
+        <v>28</v>
+      </c>
+      <c r="D19" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="B17" s="41">
-        <v>41</v>
-      </c>
-      <c r="D17" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="E17" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15">
-      <c r="A18" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="B18" s="41">
-        <v>42</v>
-      </c>
-      <c r="D18" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="E18" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15">
-      <c r="A19" s="40" t="s">
-        <v>148</v>
-      </c>
-      <c r="B19" s="41">
-        <v>28</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>148</v>
-      </c>
-      <c r="E19" s="41">
+      <c r="E19" s="35">
         <v>0</v>
       </c>
     </row>
@@ -8201,68 +8198,68 @@
         <v>18</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23" s="35">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" ht="15">
+      <c r="A24" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" s="35">
+        <v>19</v>
+      </c>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" ht="15">
+      <c r="A25" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" s="35">
+        <v>32</v>
+      </c>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" ht="15">
+      <c r="A26" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="B23" s="41">
-        <v>8</v>
-      </c>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" ht="15">
-      <c r="A24" s="40" t="s">
+      <c r="B26" s="35">
+        <v>19</v>
+      </c>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" ht="15">
+      <c r="A27" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="B24" s="41">
-        <v>19</v>
-      </c>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" ht="15">
-      <c r="A25" s="40" t="s">
+      <c r="B27" s="35">
+        <v>24</v>
+      </c>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" ht="15">
+      <c r="A28" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="B25" s="41">
-        <v>32</v>
-      </c>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" ht="15">
-      <c r="A26" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="B26" s="41">
-        <v>19</v>
-      </c>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" ht="15">
-      <c r="A27" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="B27" s="41">
-        <v>24</v>
-      </c>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:5" ht="15">
-      <c r="A28" s="40" t="s">
+      <c r="B28" s="35">
+        <v>10</v>
+      </c>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" ht="15">
+      <c r="A29" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="B28" s="41">
-        <v>10</v>
-      </c>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="1:5" ht="15">
-      <c r="A29" s="40" t="s">
-        <v>148</v>
-      </c>
-      <c r="B29" s="41">
+      <c r="B29" s="35">
         <v>19</v>
       </c>
       <c r="E29" s="3"/>
@@ -8287,10 +8284,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:L55"/>
+  <dimension ref="A3:L48"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="11.25"/>
@@ -8298,238 +8295,23 @@
     <col min="1" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
     <row r="3" spans="1:12">
       <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="1">
-        <f t="shared" ref="I4:I10" si="0">SUM(B4:H4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I9" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="12" spans="1:12">
       <c r="A12" s="5" t="s">
         <v>18</v>
       </c>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I13" s="1">
-        <f t="shared" ref="I13:I19" si="1">SUM(B13:H13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I15" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I16" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I19" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="21" spans="1:12">
       <c r="A21" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L21" s="5"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I22" s="1">
-        <f t="shared" ref="I22:I28" si="2">SUM(B22:H22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I23" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I25" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I26" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I27" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I28" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="5" t="s">
@@ -8537,206 +8319,17 @@
       </c>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I31" s="1">
-        <f t="shared" ref="I31:I37" si="3">SUM(B31:H31)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I32" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I33" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I34" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I35" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I36" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I37" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="39" spans="1:12">
       <c r="A39" s="5" t="s">
         <v>20</v>
       </c>
       <c r="L39" s="5"/>
     </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I40" s="1">
-        <f t="shared" ref="I40:I46" si="4">SUM(B40:H40)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I41" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I42" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I43" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I44" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I45" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="A46" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I46" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="48" spans="1:12">
       <c r="A48" s="5" t="s">
         <v>21</v>
       </c>
       <c r="L48" s="5"/>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I49" s="1">
-        <f t="shared" ref="I49:I55" si="5">SUM(B49:H49)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I50" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I51" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I53" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I54" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I55" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A49:L55">
